--- a/metadata/BballColor.xlsx
+++ b/metadata/BballColor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>R</t>
   </si>
@@ -33,6 +33,69 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>R v G</t>
+  </si>
+  <si>
+    <t>G &gt; 0.7618*R - 10.14 - 7.5</t>
+  </si>
+  <si>
+    <t>R v B</t>
+  </si>
+  <si>
+    <t>(130, 70)</t>
+  </si>
+  <si>
+    <t>(90, 45)</t>
+  </si>
+  <si>
+    <t>(110, 30)</t>
+  </si>
+  <si>
+    <t>(130, 50)</t>
+  </si>
+  <si>
+    <t>G v B</t>
+  </si>
+  <si>
+    <t>(90, 70)</t>
+  </si>
+  <si>
+    <t>(55, 45)</t>
+  </si>
+  <si>
+    <t>(75, 30)</t>
+  </si>
+  <si>
+    <t>(95,55)</t>
+  </si>
+  <si>
+    <t>G &lt; 0.7618*R - 10.14 + 7.5</t>
+  </si>
+  <si>
+    <t>B &lt; (5 R)/8-45/4</t>
+  </si>
+  <si>
+    <t>B &gt; R-80</t>
+  </si>
+  <si>
+    <t>B &lt; (5 G)/7+40/7</t>
+  </si>
+  <si>
+    <t>B &gt; (5 G)/4-255/4</t>
   </si>
 </sst>
 </file>
@@ -82,6 +145,3235 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Red vs Green</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2020119168"/>
+        <c:axId val="-2020025360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2020119168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="80.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Red</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2020025360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2020025360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Green</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2020119168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Green vs Blue</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2020014128"/>
+        <c:axId val="-2007749408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2020014128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Green</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2007749408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2007749408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="30.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Blue</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2020014128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Red vs Blue</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2005440368"/>
+        <c:axId val="-2087312640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2005440368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="80.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2087312640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2087312640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="30.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2005440368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,13 +3639,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D17"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -531,7 +3828,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>103</v>
       </c>
@@ -540,9 +3837,143 @@
       </c>
       <c r="D17">
         <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <f>MAX(B2:B17)</f>
+        <v>130</v>
+      </c>
+      <c r="C19">
+        <f>MAX(C2:C17)</f>
+        <v>94</v>
+      </c>
+      <c r="D19">
+        <f>MAX(D2:D17)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <f>MIN(B2:B17)</f>
+        <v>92</v>
+      </c>
+      <c r="C20">
+        <f>MIN(C2:C17)</f>
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <f>MIN(D2:D17)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <f>AVERAGE(B2:B17)</f>
+        <v>110.6875</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(C2:C17)</f>
+        <v>74.1875</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(D2:D17)</f>
+        <v>46.6875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <f>_xlfn.STDEV.P(B2:B17)</f>
+        <v>10.981340708219557</v>
+      </c>
+      <c r="C22">
+        <f>_xlfn.STDEV.P(C2:C17)</f>
+        <v>9.0015189690407258</v>
+      </c>
+      <c r="D22">
+        <f>_xlfn.STDEV.P(D2:D17)</f>
+        <v>8.5419461336395699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N29" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>